--- a/analyses/tables/foliar_organics.xlsx
+++ b/analyses/tables/foliar_organics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risa/Git/mdi_pitchpine/analyses/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicksmith/Documents/Git/mdi_pitchpine/analyses/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AC6F24-A4EB-ED41-ADBD-290C64F771A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A38232-3F1F-664E-95BB-2B2F59870FB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="500" windowWidth="26840" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9780" yWindow="4340" windowWidth="26840" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foliar_cn" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -196,6 +196,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -539,11 +559,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -901,29 +925,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -944,171 +969,171 @@
       <c r="Q1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>9.2153099577141706</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3.7736134210115098E-3</v>
-      </c>
-      <c r="E3">
+        <v>9.7855439949497907</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2.9056308843711399E-3</v>
+      </c>
+      <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>1.08701662293857</v>
+        <v>0.78705446339262997</v>
       </c>
       <c r="G3" s="3">
-        <v>0.30205033938832598</v>
-      </c>
-      <c r="H3">
+        <v>0.37915695412626599</v>
+      </c>
+      <c r="H3" s="2">
         <v>1</v>
       </c>
       <c r="I3" s="3">
-        <v>0.84369720553431904</v>
+        <v>0.14799092769065</v>
       </c>
       <c r="J3" s="3">
-        <v>0.36228094109246101</v>
-      </c>
-      <c r="K3">
+        <v>0.70191987162886105</v>
+      </c>
+      <c r="K3" s="2">
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>1.7364493832378001</v>
+        <v>0.98296650686806097</v>
       </c>
       <c r="M3" s="3">
-        <v>0.193365572754263</v>
-      </c>
-      <c r="N3">
+        <v>0.32605870857355401</v>
+      </c>
+      <c r="N3" s="2">
         <v>1</v>
       </c>
       <c r="O3" s="3">
-        <v>1.32251671493261</v>
+        <v>1.63923606406758</v>
       </c>
       <c r="P3" s="3">
-        <v>0.25540238840332802</v>
-      </c>
-      <c r="Q3" s="2"/>
+        <v>0.20611222543624799</v>
+      </c>
+      <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>1.3688362813461501</v>
+        <v>1.3688362813460899</v>
       </c>
       <c r="D4" s="3">
-        <v>0.24745049849857301</v>
-      </c>
-      <c r="E4">
+        <v>0.247450498498582</v>
+      </c>
+      <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>2.8574353376666202</v>
-      </c>
-      <c r="G4" s="3">
-        <v>9.7056481206712897E-2</v>
-      </c>
-      <c r="H4">
+        <v>2.8574353376663901</v>
+      </c>
+      <c r="G4" s="6">
+        <v>9.7056481206726095E-2</v>
+      </c>
+      <c r="H4" s="2">
         <v>1</v>
       </c>
       <c r="I4" s="3">
         <v>4.0526105279073503</v>
       </c>
-      <c r="J4" s="3">
-        <v>4.8919642497699201E-2</v>
-      </c>
-      <c r="K4">
+      <c r="J4" s="5">
+        <v>4.8919642497699402E-2</v>
+      </c>
+      <c r="K4" s="2">
         <v>1</v>
       </c>
       <c r="L4" s="3">
-        <v>1.15573951365409</v>
+        <v>1.1557395136542199</v>
       </c>
       <c r="M4" s="3">
-        <v>0.28731392635060199</v>
-      </c>
-      <c r="N4">
+        <v>0.28731392635057601</v>
+      </c>
+      <c r="N4" s="2">
         <v>1</v>
       </c>
       <c r="O4" s="3">
-        <v>0.42510317744759601</v>
+        <v>0.42510317744749299</v>
       </c>
       <c r="P4" s="3">
-        <v>0.517273262325324</v>
-      </c>
-      <c r="Q4" s="2"/>
+        <v>0.51727326232537396</v>
+      </c>
+      <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>0.226883369824534</v>
+        <v>0.226883369824533</v>
       </c>
       <c r="D5" s="3">
-        <v>0.635878844380804</v>
-      </c>
-      <c r="E5">
+        <v>0.635878844380805</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="3">
@@ -1117,16 +1142,16 @@
       <c r="G5" s="3">
         <v>0.181922723131686</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>1</v>
       </c>
       <c r="I5" s="3">
-        <v>5.4862128766723596E-4</v>
+        <v>5.4862128766725905E-4</v>
       </c>
       <c r="J5" s="3">
-        <v>0.98139638859274902</v>
-      </c>
-      <c r="K5">
+        <v>0.98139638859274803</v>
+      </c>
+      <c r="K5" s="2">
         <v>1</v>
       </c>
       <c r="L5" s="3">
@@ -1135,7 +1160,7 @@
       <c r="M5" s="3">
         <v>0.31728431055277501</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>1</v>
       </c>
       <c r="O5" s="3">
@@ -1144,27 +1169,33 @@
       <c r="P5" s="3">
         <v>0.197140938113116</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>51</v>
       </c>
-      <c r="E6">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
         <v>51</v>
       </c>
-      <c r="H6">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7">
         <v>56</v>
       </c>
-      <c r="K6">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7">
         <v>52</v>
       </c>
-      <c r="N6">
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7">
         <v>52</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/analyses/tables/foliar_organics.xlsx
+++ b/analyses/tables/foliar_organics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicksmith/Documents/Git/mdi_pitchpine/analyses/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A38232-3F1F-664E-95BB-2B2F59870FB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54709442-D44E-E549-95DA-ACF1BC679B93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9780" yWindow="4340" windowWidth="26840" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -567,7 +567,6 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1026,46 +1025,46 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>9.7855439949497907</v>
+        <v>6.8702204244412304</v>
       </c>
       <c r="D3" s="5">
-        <v>2.9056308843711399E-3</v>
+        <v>1.12630817165716E-2</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>0.78705446339262997</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.37915695412626599</v>
+        <v>3.3821076887715602</v>
+      </c>
+      <c r="G3" s="6">
+        <v>7.1211759809869296E-2</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
       </c>
       <c r="I3" s="3">
-        <v>0.14799092769065</v>
+        <v>0.227089476136204</v>
       </c>
       <c r="J3" s="3">
-        <v>0.70191987162886105</v>
+        <v>0.63554460399277801</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>0.98296650686806097</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0.32605870857355401</v>
+        <v>3.9301080217375999</v>
+      </c>
+      <c r="M3" s="6">
+        <v>5.2724090475718903E-2</v>
       </c>
       <c r="N3" s="2">
         <v>1</v>
       </c>
       <c r="O3" s="3">
-        <v>1.63923606406758</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0.20611222543624799</v>
+        <v>3.98523787267575</v>
+      </c>
+      <c r="P3" s="6">
+        <v>5.1148950628178799E-2</v>
       </c>
       <c r="Q3" s="4"/>
     </row>
@@ -1077,46 +1076,46 @@
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>1.3688362813460899</v>
+        <v>2.3358724845536498</v>
       </c>
       <c r="D4" s="3">
-        <v>0.247450498498582</v>
+        <v>0.132053362595801</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>2.8574353376663901</v>
+        <v>3.75408782549344</v>
       </c>
       <c r="G4" s="6">
-        <v>9.7056481206726095E-2</v>
+        <v>5.7727820627292897E-2</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
       </c>
       <c r="I4" s="3">
-        <v>4.0526105279073503</v>
+        <v>4.38817565473515</v>
       </c>
       <c r="J4" s="5">
-        <v>4.8919642497699402E-2</v>
+        <v>4.0725095207643801E-2</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
       </c>
       <c r="L4" s="3">
-        <v>1.1557395136542199</v>
+        <v>1.7105331462004001</v>
       </c>
       <c r="M4" s="3">
-        <v>0.28731392635057601</v>
+        <v>0.196668780008731</v>
       </c>
       <c r="N4" s="2">
         <v>1</v>
       </c>
       <c r="O4" s="3">
-        <v>0.42510317744749299</v>
+        <v>0.20507402240071801</v>
       </c>
       <c r="P4" s="3">
-        <v>0.51727326232537396</v>
+        <v>0.65253991458734895</v>
       </c>
       <c r="Q4" s="4"/>
     </row>
@@ -1128,72 +1127,64 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>0.226883369824533</v>
+        <v>0.12805119993318401</v>
       </c>
       <c r="D5" s="3">
-        <v>0.635878844380805</v>
+        <v>0.72180651884157399</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="3">
-        <v>1.8314665441201501</v>
+        <v>0.62468001540109397</v>
       </c>
       <c r="G5" s="3">
-        <v>0.181922723131686</v>
+        <v>0.432647810764277</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
       </c>
       <c r="I5" s="3">
-        <v>5.4862128766725905E-4</v>
+        <v>5.9313977746732896E-3</v>
       </c>
       <c r="J5" s="3">
-        <v>0.98139638859274803</v>
+        <v>0.93888566801486295</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
       </c>
       <c r="L5" s="3">
-        <v>1.01962227717708</v>
+        <v>0.11411512985054501</v>
       </c>
       <c r="M5" s="3">
-        <v>0.31728431055277501</v>
+        <v>0.73686687186911703</v>
       </c>
       <c r="N5" s="2">
         <v>1</v>
       </c>
       <c r="O5" s="3">
-        <v>1.7068713593407401</v>
+        <v>0.71070731126266795</v>
       </c>
       <c r="P5" s="3">
-        <v>0.197140938113116</v>
+        <v>0.403070291208113</v>
       </c>
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="7">
-        <v>51</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7">
-        <v>51</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7">
+      <c r="B6" s="2">
         <v>56</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7">
+      <c r="E6" s="2">
+        <v>56</v>
+      </c>
+      <c r="H6" s="2">
+        <v>56</v>
+      </c>
+      <c r="K6" s="2">
         <v>52</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7">
+      <c r="N6" s="2">
         <v>52</v>
       </c>
     </row>
